--- a/data/trans_bre/P19_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19_1_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-2,8</t>
+          <t>11,83</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-7,79</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,89</t>
+          <t>-7,18</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-11,86</t>
+          <t>29,51</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-11,29%</t>
+          <t>-16,22</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-29,4%</t>
+          <t>17,06%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>36,84%</t>
+          <t>-0,61%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-46,79%</t>
+          <t>-7,98%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>52,36%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-17,07%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-22,1; 9,88</t>
+          <t>-9,51; 46,52</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-32,0; 5,46</t>
+          <t>-20,94; 18,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 15,02</t>
+          <t>-21,06; 7,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-40,62; 2,22</t>
+          <t>3,58; 65,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-59,37; 65,13</t>
+          <t>-31,56; -1,44</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-72,44; 32,83</t>
+          <t>-10,84; 114,37</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,15; 214,37</t>
+          <t>-24,39; 28,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-87,38; 14,03</t>
+          <t>-22,44; 8,52</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>3,54; 278,68</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-33,41; -2,35</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,16</t>
+          <t>-10,57</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,26</t>
+          <t>-7,95</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,34</t>
+          <t>-1,87</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>3,3</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,87%</t>
+          <t>-11,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>-4,07%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,74%</t>
+          <t>-9,03%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>-2,26%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>3,82%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 9,54</t>
+          <t>-18,6; -3,0</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-4,99; 8,67</t>
+          <t>-12,31; 4,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,55; 9,24</t>
+          <t>-15,8; -0,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,41; 10,76</t>
+          <t>-11,26; 12,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,9; 78,86</t>
+          <t>-3,61; 10,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,58; 64,62</t>
+          <t>-20,37; -3,5</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-17,19; 94,0</t>
+          <t>-14,2; 6,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-24,67; 99,78</t>
+          <t>-17,55; -0,23</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-12,63; 16,62</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-4,02; 13,21</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,04</t>
+          <t>-8,86</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>8,4</t>
+          <t>-5,13</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>23,91%</t>
+          <t>-2,02</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>-10,62%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>52,71%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-8,24%</t>
+          <t>-6,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-0,78%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-2,24%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 12,89</t>
+          <t>-17,66; 1,3</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-8,07; 6,81</t>
+          <t>-8,17; 8,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,81; 15,28</t>
+          <t>-14,43; 4,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,29; 4,69</t>
+          <t>-8,25; 8,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-13,36; 75,54</t>
+          <t>-9,06; 5,79</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,88; 55,96</t>
+          <t>-20,33; 1,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 120,51</t>
+          <t>-9,05; 11,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-44,17; 48,39</t>
+          <t>-16,65; 6,01</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-9,2; 10,41</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-9,66; 6,79</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,38</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-0,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,62%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-2,05%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>38,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-4,41%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 7,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 4,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,7; 9,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 4,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-12,33; 47,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-27,44; 29,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,74; 80,66</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-36,78; 33,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>-7,0</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>-1,26</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>-6,89</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,28</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>-1,68</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>-8,3%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-1,54%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-7,96%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>4,09%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-1,9%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-13,05; 1,43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-7,5; 4,79</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-12,15; -1,28</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-3,98; 13,64</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-7,01; 3,52</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-15,04; 1,48</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-8,75; 6,11</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-13,67; -1,64</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-4,69; 19,11</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-7,62; 4,15</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P19_1_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P19_1_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,83</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-7,18</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>29,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-16,22</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,06%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>-0,61%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-7,98%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>52,36%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-17,07%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.83331423152747</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.979128763911724</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-6.072178723887223</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>28.84250222464016</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>-19.17023553133725</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>0.1706486596555251</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.09761728965475755</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.06739735525711303</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.5045325211253698</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>-0.2027316345952963</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-9,51; 46,52</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-20,94; 18,98</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-21,06; 7,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,58; 65,54</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-31,56; -1,44</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-10,84; 114,37</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-24,39; 28,55</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-22,44; 8,52</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>3,54; 278,68</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-33,41; -2,35</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-9.505359210335753</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-15.28220561917002</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-19.57380305152103</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.380350908573773</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-37.21781731364528</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.1083854462209701</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.177717347535841</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.206306651172844</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.04243743468479867</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.3861567598955754</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>46.51785340066265</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>28.71125476126321</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.109323718345536</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>64.07152787804814</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>-3.271965139980546</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>1.143744324236729</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.5293224771959436</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.0979625671406707</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>2.539316188938725</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>-0.04061877016127022</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-10,57</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-7,95</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-1,87</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>3,3</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-11,82%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-4,07%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-9,03%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>-2,26%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>3,82%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-18,6; -3,0</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-12,31; 4,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-15,8; -0,12</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-11,26; 12,13</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 10,67</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-20,37; -3,5</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-14,2; 6,22</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-17,55; -0,23</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-12,63; 16,62</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-4,02; 13,21</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-10.56574498660587</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-5.727227473888929</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-8.89509720330437</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-2.270856514517094</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>2.730864749326389</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.1181816257489432</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.07025477720242156</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1003284846011268</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>-0.02732458459503016</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.03153755567964725</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-8,86</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,13</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,68</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-2,02</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-10,62%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>0,41%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-6,17%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-0,78%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-2,24%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-18.60152031448887</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-14.866539797767</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-16.66393190441807</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-11.55672682763528</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-4.406835094858407</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.2036673340351322</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.1774257545402017</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.1837037392347821</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.1297325215765291</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>-0.04824873814437957</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-17,66; 1,3</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 8,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-14,43; 4,79</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-8,25; 8,58</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,06; 5,79</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-20,33; 1,75</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-9,05; 11,1</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-16,65; 6,01</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-9,2; 10,41</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-9,66; 6,79</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-3.002554520514203</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>2.910849579402319</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>-1.333511924758259</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>11.62368267625663</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>9.762995885848882</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>-0.03496188635191503</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.03783641896417474</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>-0.01535751077112226</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>0.1604345557010625</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>0.1199033056119817</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +879,247 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-8.855233286923415</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.054336296807901</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-5.184747445421034</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.4111451104857444</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-1.194820296064691</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>-0.1062226514650048</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.0124848231058662</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.06276698535456746</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.004772590417364234</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>-0.01333522796701275</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-17.6595216971133</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-7.445077286931924</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-14.45192434324313</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-7.402345132952568</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-8.428862868727979</v>
+      </c>
+      <c r="H11" s="6" t="n">
+        <v>-0.2033261475077212</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.08380798843039751</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.167092017291376</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.08086792200524033</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.08941491241380574</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1.304658037510231</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>11.87273168152226</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>5.799237104506872</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>9.789785196647866</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>6.826691910397141</v>
+      </c>
+      <c r="H12" s="6" t="n">
+        <v>0.01748422092522152</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.1564577155252612</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.0745832123157165</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.1220622138450123</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>0.08153791897221196</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-7,0</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,26</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-6,89</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,28</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-1,68</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-8,3%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-1,54%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-7,96%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>4,09%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-1,9%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-13,05; 1,43</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-7,5; 4,79</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-12,15; -1,28</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-3,98; 13,64</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-7,01; 3,52</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-15,04; 1,48</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-8,75; 6,11</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-13,67; -1,64</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-4,69; 19,11</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-7,62; 4,15</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-7.000938908972321</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-1.225271135325423</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-7.195966895363803</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.222719179035716</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>-2.246976403665091</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.0830052066896757</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.01507133086615103</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>-0.08308152346104851</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.0399570343558573</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>-0.02536217941652534</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-13.04920436725131</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.510660507350597</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-12.47315691655762</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-3.739300503485036</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-8.078327225513181</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.1504197397697887</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08857607824227921</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1410127778561359</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.04340240811562947</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>-0.08977733945381246</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>1.426542714265194</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.411087971999915</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>-1.6090556613034</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>12.81735698617376</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.069535894312585</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.01483786361148156</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.06976709103272803</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>-0.0194250146794576</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.1770039177979775</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.03553622195307212</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
